--- a/files/UpdatedFormatAiimsDelhi (4).xlsx
+++ b/files/UpdatedFormatAiimsDelhi (4).xlsx
@@ -15,7 +15,6 @@
     <sheet name="UpdatedFormatAiimsDelhi.xlsx" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
